--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 3,16</t>
+          <t>0,0; 15,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,42</t>
+          <t>0,0; 17,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,0</t>
+          <t>-10,72; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,83</t>
+          <t>-17,69; -1,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 3,26</t>
+          <t>-3,81; 7,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,2</t>
+          <t>0,0; 18,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,0</t>
+          <t>0,0; 20,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,83</t>
+          <t>-10,72; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,69; -1,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 8,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 16,45</t>
+          <t>0,0; 14,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 13,26</t>
+          <t>-3,72; 10,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 15,16</t>
+          <t>-5,31; 12,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 17,52</t>
+          <t>-4,58; 17,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 19,67</t>
+          <t>-3,89; 14,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,41</t>
+          <t>0,0; 16,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 18,34</t>
+          <t>-3,73; 12,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 21,6</t>
+          <t>-5,4; 15,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 22,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 17,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,45</t>
+          <t>0,32; 16,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,43</t>
+          <t>1,51; 18,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 12,19</t>
+          <t>1,39; 18,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,89</t>
+          <t>2,38; 22,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,94</t>
+          <t>2,88; 22,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,64</t>
+          <t>0,31; 20,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 13,97</t>
+          <t>1,57; 23,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 14,87</t>
+          <t>1,48; 23,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 28,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 28,81</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 7,79</t>
+          <t>-7,15; 6,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,65</t>
+          <t>-5,84; 8,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 8,52</t>
+          <t>-6,17; 8,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,71</t>
+          <t>-5,19; 8,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,82</t>
+          <t>-6,78; 10,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 11,19</t>
+          <t>-7,35; 6,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,77</t>
+          <t>-6,05; 9,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,96</t>
+          <t>-6,49; 9,77</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 9,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 12,74</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 8,24</t>
+          <t>-16,96; 11,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 14,66</t>
+          <t>-13,86; 17,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 14,56</t>
+          <t>-13,41; 18,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 10,92</t>
+          <t>-17,19; 12,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 8,66</t>
+          <t>-23,22; 8,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 19,08</t>
+          <t>-17,74; 14,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 18,31</t>
+          <t>-14,25; 23,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 13,41</t>
+          <t>-13,91; 25,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 14,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-25,62; 10,41</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-21,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-21,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-22,08</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>-21,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>-17,45</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,62%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-22,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>-22,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-21,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -1,05</t>
+          <t>-35,59; -9,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,19; -1,16</t>
+          <t>-35,75; -9,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 0,57</t>
+          <t>-35,7; -9,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 3,86</t>
+          <t>-35,12; -8,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -1,47</t>
+          <t>-31,54; -4,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -1,61</t>
+          <t>-36,61; -10,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 0,4</t>
+          <t>-36,44; -10,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 4,54</t>
+          <t>-37,01; -10,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-36,27; -9,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-32,22; -4,57</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,01</t>
+          <t>-3,79; 3,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,31</t>
+          <t>-3,57; 4,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,43</t>
+          <t>-4,2; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,1</t>
+          <t>-4,79; 3,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,31</t>
+          <t>-5,55; 3,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,72</t>
+          <t>-3,96; 4,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,9</t>
+          <t>-3,72; 5,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,5</t>
+          <t>-4,42; 4,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 3,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
